--- a/data/trans_orig/OT2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D832C5A5-76DF-4F9C-AA0C-2FDCEDF72317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF65BDE-FACF-4B96-AF32-6FC51F62B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF117C96-9B06-4DD5-9D48-98E76E2ABC3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C22B2AB-F955-4865-B308-C0E861896287}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="157">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -210,28 +210,28 @@
     <t>48,66%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -243,64 +243,64 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>63,97%</t>
+    <t>64,0%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>42,23%</t>
+    <t>42,49%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>50,69%</t>
+    <t>56,41%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>36,14%</t>
+    <t>29,05%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>72,25%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,51%</t>
+    <t>46,65%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,32%</t>
+    <t>34,88%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>83,59%</t>
+    <t>84,32%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>61,12%</t>
+    <t>60,55%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -369,16 +369,16 @@
     <t>68,15%</t>
   </si>
   <si>
-    <t>26,28%</t>
+    <t>24,12%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>18,65%</t>
@@ -393,19 +393,19 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>38,0%</t>
+    <t>34,86%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>75,88%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>46,7%</t>
+    <t>48,6%</t>
   </si>
   <si>
     <t>48,53%</t>
@@ -417,25 +417,25 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>45,61%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>85,33%</t>
@@ -444,7 +444,7 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -453,58 +453,61 @@
     <t>4,57%</t>
   </si>
   <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
     <t>23,16%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>33,0%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>62,99%</t>
+    <t>58,24%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1813B06D-5808-4645-ADFE-86CF04EA8B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E200489-E07A-44B7-88AB-80C9A0555807}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2671,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3F6C1D-7EDA-4A82-BD23-E642842C77AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C3495-6ACB-4CED-8046-D5982D168EA7}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4198,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4249,7 +4252,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4267,13 @@
         <v>1019</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4294,13 +4297,13 @@
         <v>1019</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4318,13 @@
         <v>974</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4330,13 +4333,13 @@
         <v>2309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4345,13 +4348,13 @@
         <v>3283</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF65BDE-FACF-4B96-AF32-6FC51F62B234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{524CEDEF-D535-484F-8D74-1CC733ACAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C22B2AB-F955-4865-B308-C0E861896287}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72BC7645-7DD5-476B-B75F-D79D774A62FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="158">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>36,52%</t>
   </si>
   <si>
-    <t>84,94%</t>
+    <t>84,72%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
   </si>
   <si>
     <t>Obesidad morbida</t>
@@ -117,274 +117,277 @@
     <t>32,26%</t>
   </si>
   <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>Parkinson</t>
+  </si>
+  <si>
+    <t>Apnea del sueño</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>Tiroides</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>Hernia de Hiato</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
     <t>81,35%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>Parkinson</t>
-  </si>
-  <si>
-    <t>Apnea del sueño</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>Tiroides</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>Hernia de Hiato</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>24,12%</t>
+    <t>25,01%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>72,19%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -393,19 +396,19 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>35,21%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>75,88%</t>
+    <t>74,99%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>48,6%</t>
+    <t>49,68%</t>
   </si>
   <si>
     <t>48,53%</t>
@@ -417,34 +420,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -453,7 +456,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -462,52 +465,52 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>47,9%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>41,88%</t>
+    <t>34,21%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>22,11%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>32,01%</t>
+    <t>34,59%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>55,74%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E200489-E07A-44B7-88AB-80C9A0555807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32816E0E-9D90-4875-8A8A-2F04EF38ABFC}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2674,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C3495-6ACB-4CED-8046-D5982D168EA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C99A10-9F7D-4D4A-9075-3CE94E820745}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3208,10 +3211,10 @@
         <v>4726</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -3223,10 +3226,10 @@
         <v>4941</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -3238,13 +3241,13 @@
         <v>9668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3262,13 @@
         <v>1084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3280,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3289,13 +3292,13 @@
         <v>1084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3382,7 +3385,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -3433,7 +3436,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3484,7 +3487,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3529,13 +3532,13 @@
         <v>2309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3544,13 +3547,13 @@
         <v>2309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3621,7 @@
         <v>960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -3646,7 +3649,7 @@
         <v>960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
@@ -3863,7 +3866,7 @@
         <v>1019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
@@ -3891,7 +3894,7 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
@@ -4012,13 +4015,13 @@
         <v>8717</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4027,13 +4030,13 @@
         <v>7165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -4042,13 +4045,13 @@
         <v>15882</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4066,13 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4084,7 +4087,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4093,13 +4096,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,7 +4138,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4150,7 +4153,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4183,13 @@
         <v>1347</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -4195,13 +4198,13 @@
         <v>1347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4219,13 @@
         <v>1083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4237,7 +4240,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4246,13 +4249,13 @@
         <v>1083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4270,13 @@
         <v>1019</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4288,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -4297,13 +4300,13 @@
         <v>1019</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4321,13 @@
         <v>974</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4333,13 +4336,13 @@
         <v>2309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4348,13 +4351,13 @@
         <v>3283</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{524CEDEF-D535-484F-8D74-1CC733ACAD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AECA08-1F2B-48D2-BFF0-10543B0707AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{72BC7645-7DD5-476B-B75F-D79D774A62FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62FB7B9C-811A-4028-A6F8-7580776C246B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="156">
   <si>
     <t>Población con diagnóstico de otra enfermedad 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>36,52%</t>
   </si>
   <si>
-    <t>84,72%</t>
+    <t>84,94%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>Obesidad morbida</t>
@@ -117,13 +117,13 @@
     <t>32,26%</t>
   </si>
   <si>
-    <t>81,52%</t>
+    <t>81,35%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>65,42%</t>
+    <t>55,84%</t>
   </si>
   <si>
     <t>Parkinson</t>
@@ -135,13 +135,13 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>63,55%</t>
+    <t>64,96%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>48,9%</t>
+    <t>52,5%</t>
   </si>
   <si>
     <t>Tiroides</t>
@@ -153,16 +153,16 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>67,15%</t>
+    <t>68,12%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>Hernia de Hiato</t>
@@ -213,25 +213,25 @@
     <t>15,67%</t>
   </si>
   <si>
-    <t>82,83%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>40,05%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -243,43 +243,43 @@
     <t>24,09%</t>
   </si>
   <si>
-    <t>61,88%</t>
+    <t>63,97%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>42,23%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>62,52%</t>
+    <t>50,69%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>35,91%</t>
+    <t>36,14%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>10,83%</t>
   </si>
   <si>
-    <t>46,9%</t>
+    <t>46,51%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>41,47%</t>
+    <t>41,32%</t>
   </si>
   <si>
     <t>34,3%</t>
@@ -291,16 +291,16 @@
     <t>12,48%</t>
   </si>
   <si>
-    <t>50,73%</t>
+    <t>61,12%</t>
   </si>
   <si>
     <t>21,78%</t>
   </si>
   <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -321,10 +321,10 @@
     <t>60,68%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -336,58 +336,55 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>56,65%</t>
+    <t>57,48%</t>
   </si>
   <si>
     <t>21,29%</t>
   </si>
   <si>
-    <t>81,64%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>51,99%</t>
+    <t>50,98%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>78,77%</t>
+    <t>78,35%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>25,01%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>81,77%</t>
+    <t>72,19%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -396,19 +393,19 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>35,21%</t>
+    <t>38,0%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>74,99%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>49,68%</t>
+    <t>46,7%</t>
   </si>
   <si>
     <t>48,53%</t>
@@ -420,34 +417,34 @@
     <t>67,69%</t>
   </si>
   <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>66,22%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
   </si>
   <si>
     <t>67,02%</t>
   </si>
   <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>39,94%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -456,7 +453,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>22,51%</t>
+    <t>23,16%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -465,52 +462,49 @@
     <t>12,45%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>56,77%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>34,21%</t>
+    <t>33,56%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>22,11%</t>
+    <t>21,43%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>34,59%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>55,74%</t>
+    <t>62,99%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
 </sst>
 </file>
@@ -922,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32816E0E-9D90-4875-8A8A-2F04EF38ABFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC3658A-7FFD-4F1F-8ED0-F09AD129BD5C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2677,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C99A10-9F7D-4D4A-9075-3CE94E820745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B832E92-92AD-49C2-AC05-58159D9E6622}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3211,10 +3205,10 @@
         <v>4726</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -3226,10 +3220,10 @@
         <v>4941</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -3241,13 +3235,13 @@
         <v>9668</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,28 +3256,28 @@
         <v>1084</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3292,13 +3286,13 @@
         <v>1084</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3328,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3385,7 +3379,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -3436,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3487,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3532,13 +3526,13 @@
         <v>2309</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -3547,13 +3541,13 @@
         <v>2309</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,7 +3615,7 @@
         <v>960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -3649,7 +3643,7 @@
         <v>960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
@@ -3866,7 +3860,7 @@
         <v>1019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
@@ -3894,7 +3888,7 @@
         <v>1019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
@@ -4015,13 +4009,13 @@
         <v>8717</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4030,13 +4024,13 @@
         <v>7165</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -4045,13 +4039,13 @@
         <v>15882</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,28 +4060,28 @@
         <v>1084</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -4096,13 +4090,13 @@
         <v>1084</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4153,7 +4147,7 @@
         <v>20</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4177,13 @@
         <v>1347</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -4198,13 +4192,13 @@
         <v>1347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4213,13 @@
         <v>1083</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -4240,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4249,13 +4243,13 @@
         <v>1083</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>1019</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -4291,7 +4285,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -4300,13 +4294,13 @@
         <v>1019</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>974</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -4336,13 +4330,13 @@
         <v>2309</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M34" s="7">
         <v>3</v>
@@ -4351,13 +4345,13 @@
         <v>3283</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/OT2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/OT2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AECA08-1F2B-48D2-BFF0-10543B0707AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF89698-C27A-4AAE-81BE-DD66C60EECA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62FB7B9C-811A-4028-A6F8-7580776C246B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D8E66CAC-2455-4AFF-B467-56C594F6D092}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -916,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC3658A-7FFD-4F1F-8ED0-F09AD129BD5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2874BE3C-1AE9-4E26-B1AB-6BC01C8A56ED}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2671,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B832E92-92AD-49C2-AC05-58159D9E6622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0200BEE-6871-4AFB-8135-66FDB6D27211}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
